--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_4_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_4_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2378842.562372418</v>
+        <v>-2380927.813316107</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2366970.744934245</v>
+        <v>2366970.744934243</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>234.7791226009438</v>
+        <v>80.18469283774338</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>244.5627323611424</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>15.28796821707176</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>209.9064962068211</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>148.9413660216818</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>208.6835142066282</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>244.5627323611424</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,16 +735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.1591249337519</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>99.6672001609758</v>
       </c>
       <c r="S3" t="n">
-        <v>171.5363898835276</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9408621947163</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>185.0077064646997</v>
       </c>
       <c r="Y3" t="n">
-        <v>168.5167738362578</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -823,49 +823,49 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
         <v>137.081565665098</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>262.0130880685285</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="C5" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>43.41932783448113</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -917,7 +917,7 @@
         <v>206.9091621893709</v>
       </c>
       <c r="J5" t="n">
-        <v>4.097100052852153</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>125.6384340685011</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1023,16 +1023,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1041,7 +1041,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>167.4198701917279</v>
       </c>
     </row>
     <row r="7">
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>69.40990664858349</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>90.42516245839144</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>159.8350691069749</v>
       </c>
     </row>
     <row r="8">
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>371.0738239829587</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>231.8769367154551</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.9566261359304</v>
@@ -1151,7 +1151,7 @@
         <v>325.6889389534878</v>
       </c>
       <c r="I8" t="n">
-        <v>158.5799306236197</v>
+        <v>158.5799306236195</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.2032470016631</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -1218,10 +1218,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>106.2257594821602</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>136.6232840795164</v>
@@ -1230,7 +1230,7 @@
         <v>105.2795089281862</v>
       </c>
       <c r="I9" t="n">
-        <v>64.59913413650352</v>
+        <v>64.59913413650344</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>55.44020462292492</v>
+        <v>55.44020462292474</v>
       </c>
       <c r="S9" t="n">
-        <v>158.3051574659206</v>
+        <v>110.5736013602372</v>
       </c>
       <c r="T9" t="n">
         <v>197.2616839408084</v>
@@ -1300,19 +1300,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3871601352868</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.8586706868748</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>83.65357013257253</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>50.66916103841881</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>150.1434833970943</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>201.7084832951639</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113163</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
         <v>81.77913505274077</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>101.2898147863551</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037929</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985772</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>111.8652689647488</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1771,19 +1771,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1819,19 +1819,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>50.0363397495327</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>5.562624396424355</v>
       </c>
     </row>
     <row r="17">
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S19" t="n">
-        <v>122.6519788371596</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>36.31437750815338</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,16 +2129,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498009</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>8.525532102718858</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>118.4898845065131</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,16 +2366,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
-        <v>208.4827883385018</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0785952498009</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2384,7 +2384,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2521,25 +2521,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>183.1796758467012</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>143.0053956628067</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>146.9918141226642</v>
+        <v>152.2303518676588</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>121.0138447039338</v>
       </c>
       <c r="E28" t="n">
-        <v>118.8323343322906</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>121.3122000532576</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>82.81761714999341</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>82.36272408951449</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>170.3191816693247</v>
       </c>
       <c r="T28" t="n">
-        <v>193.9459327441107</v>
+        <v>145.0987981088258</v>
       </c>
       <c r="U28" t="n">
-        <v>258.6357240842988</v>
+        <v>258.6357240842992</v>
       </c>
       <c r="V28" t="n">
-        <v>224.5360150095494</v>
+        <v>224.5360150095495</v>
       </c>
       <c r="W28" t="n">
-        <v>258.9213700223124</v>
+        <v>258.9213700223125</v>
       </c>
       <c r="X28" t="n">
-        <v>198.1080270747586</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>190.9830250378163</v>
       </c>
     </row>
     <row r="29">
@@ -2807,10 +2807,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2953,13 +2953,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>72.16671006864959</v>
       </c>
       <c r="E31" t="n">
-        <v>118.8323343322907</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>117.8194197086527</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>82.36272408951429</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>170.3191816693248</v>
       </c>
       <c r="T31" t="n">
         <v>193.9459327441107</v>
       </c>
       <c r="U31" t="n">
-        <v>258.6357240842988</v>
+        <v>258.6357240842987</v>
       </c>
       <c r="V31" t="n">
         <v>224.5360150095495</v>
@@ -3013,7 +3013,7 @@
         <v>258.9213700223125</v>
       </c>
       <c r="X31" t="n">
-        <v>88.19686178654514</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>190.9830250378163</v>
@@ -3044,10 +3044,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415187</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3281,10 +3281,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898722</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857175</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692856</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415232</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
       </c>
       <c r="T37" t="n">
-        <v>153.4156709287484</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U37" t="n">
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
       </c>
       <c r="T40" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287489</v>
       </c>
       <c r="U40" t="n">
-        <v>218.1054622689372</v>
+        <v>218.1054622689368</v>
       </c>
       <c r="V40" t="n">
         <v>184.0057531941873</v>
@@ -3752,13 +3752,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898724</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857176</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692858</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329065</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373699</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789553</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463139</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415219</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S43" t="n">
-        <v>129.7889198539627</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T43" t="n">
-        <v>153.4156709287487</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U43" t="n">
         <v>218.1054622689367</v>
@@ -3961,7 +3961,7 @@
         <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
-        <v>157.5777652593966</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
         <v>150.4527632224542</v>
@@ -3977,7 +3977,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3992,10 +3992,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4189,19 +4189,19 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U46" t="n">
-        <v>218.1054622689368</v>
+        <v>218.1054622689365</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>731.2178664535168</v>
+        <v>122.947550706595</v>
       </c>
       <c r="C2" t="n">
-        <v>494.0672375636746</v>
+        <v>41.95291147655119</v>
       </c>
       <c r="D2" t="n">
-        <v>494.0672375636746</v>
+        <v>41.95291147655119</v>
       </c>
       <c r="E2" t="n">
-        <v>494.0672375636746</v>
+        <v>41.95291147655119</v>
       </c>
       <c r="F2" t="n">
-        <v>247.0341745726216</v>
+        <v>35.00741072734773</v>
       </c>
       <c r="G2" t="n">
-        <v>231.5917824341653</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H2" t="n">
-        <v>231.5917824341653</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I2" t="n">
         <v>19.56501858889139</v>
@@ -4352,28 +4352,28 @@
         <v>978.2509294445697</v>
       </c>
       <c r="R2" t="n">
-        <v>978.2509294445697</v>
+        <v>827.8051051802446</v>
       </c>
       <c r="S2" t="n">
-        <v>978.2509294445697</v>
+        <v>617.0136766887009</v>
       </c>
       <c r="T2" t="n">
-        <v>978.2509294445697</v>
+        <v>617.0136766887009</v>
       </c>
       <c r="U2" t="n">
-        <v>978.2509294445697</v>
+        <v>369.980613697648</v>
       </c>
       <c r="V2" t="n">
-        <v>978.2509294445697</v>
+        <v>369.980613697648</v>
       </c>
       <c r="W2" t="n">
-        <v>731.2178664535168</v>
+        <v>369.980613697648</v>
       </c>
       <c r="X2" t="n">
-        <v>731.2178664535168</v>
+        <v>369.980613697648</v>
       </c>
       <c r="Y2" t="n">
-        <v>731.2178664535168</v>
+        <v>122.947550706595</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>466.5475482631022</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="C3" t="n">
-        <v>292.0945189819752</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="D3" t="n">
-        <v>292.0945189819752</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="E3" t="n">
-        <v>132.8570639765196</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="F3" t="n">
-        <v>132.8570639765196</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="G3" t="n">
-        <v>132.8570639765196</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H3" t="n">
         <v>19.56501858889139</v>
@@ -4413,10 +4413,10 @@
         <v>146.1858617037014</v>
       </c>
       <c r="L3" t="n">
-        <v>377.8476075409625</v>
+        <v>146.1858617037014</v>
       </c>
       <c r="M3" t="n">
-        <v>481.6032601595283</v>
+        <v>388.3029667412324</v>
       </c>
       <c r="N3" t="n">
         <v>481.6032601595283</v>
@@ -4431,28 +4431,28 @@
         <v>978.2509294445697</v>
       </c>
       <c r="R3" t="n">
-        <v>978.2509294445697</v>
+        <v>877.5769898880285</v>
       </c>
       <c r="S3" t="n">
-        <v>804.9818487541377</v>
+        <v>877.5769898880285</v>
       </c>
       <c r="T3" t="n">
-        <v>804.9818487541377</v>
+        <v>877.5769898880285</v>
       </c>
       <c r="U3" t="n">
-        <v>804.9818487541377</v>
+        <v>649.3538967620524</v>
       </c>
       <c r="V3" t="n">
-        <v>804.9818487541377</v>
+        <v>414.2017885303097</v>
       </c>
       <c r="W3" t="n">
-        <v>804.9818487541377</v>
+        <v>414.2017885303097</v>
       </c>
       <c r="X3" t="n">
-        <v>804.9818487541377</v>
+        <v>227.3253173538453</v>
       </c>
       <c r="Y3" t="n">
-        <v>634.7628852831701</v>
+        <v>19.56501858889139</v>
       </c>
     </row>
     <row r="4">
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>158.0312465334349</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="C4" t="n">
-        <v>158.0312465334349</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="D4" t="n">
-        <v>158.0312465334349</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="E4" t="n">
         <v>19.56501858889139</v>
@@ -4513,25 +4513,25 @@
         <v>158.0312465334349</v>
       </c>
       <c r="S4" t="n">
-        <v>158.0312465334349</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="T4" t="n">
-        <v>158.0312465334349</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="U4" t="n">
-        <v>158.0312465334349</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="V4" t="n">
-        <v>158.0312465334349</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="W4" t="n">
-        <v>158.0312465334349</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="X4" t="n">
-        <v>158.0312465334349</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="Y4" t="n">
-        <v>158.0312465334349</v>
+        <v>19.56501858889139</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>522.4074064933379</v>
+        <v>296.2257840993605</v>
       </c>
       <c r="C5" t="n">
-        <v>256.5063620977151</v>
+        <v>296.2257840993605</v>
       </c>
       <c r="D5" t="n">
-        <v>256.5063620977151</v>
+        <v>252.3678771958442</v>
       </c>
       <c r="E5" t="n">
-        <v>256.5063620977151</v>
+        <v>252.3678771958442</v>
       </c>
       <c r="F5" t="n">
-        <v>249.5608613485116</v>
+        <v>245.4223764466408</v>
       </c>
       <c r="G5" t="n">
-        <v>234.1970013446415</v>
+        <v>230.0585164427707</v>
       </c>
       <c r="H5" t="n">
-        <v>234.1970013446415</v>
+        <v>230.0585164427707</v>
       </c>
       <c r="I5" t="n">
-        <v>25.19784761800419</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J5" t="n">
         <v>21.05936271613333</v>
@@ -4595,22 +4595,22 @@
         <v>1052.968135806666</v>
       </c>
       <c r="T5" t="n">
-        <v>1052.968135806666</v>
+        <v>828.0278728906062</v>
       </c>
       <c r="U5" t="n">
-        <v>1052.968135806666</v>
+        <v>828.0278728906062</v>
       </c>
       <c r="V5" t="n">
-        <v>1052.968135806666</v>
+        <v>828.0278728906062</v>
       </c>
       <c r="W5" t="n">
-        <v>1052.968135806666</v>
+        <v>828.0278728906062</v>
       </c>
       <c r="X5" t="n">
-        <v>787.0670914110435</v>
+        <v>562.1268284949833</v>
       </c>
       <c r="Y5" t="n">
-        <v>787.0670914110435</v>
+        <v>562.1268284949833</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4620,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>147.9668718762354</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="C6" t="n">
-        <v>147.9668718762354</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="D6" t="n">
-        <v>147.9668718762354</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="E6" t="n">
-        <v>147.9668718762354</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F6" t="n">
         <v>21.05936271613333</v>
@@ -4653,13 +4653,13 @@
         <v>154.3302328992135</v>
       </c>
       <c r="M6" t="n">
-        <v>264.2940185443781</v>
+        <v>414.9398465113634</v>
       </c>
       <c r="N6" t="n">
-        <v>524.903632156528</v>
+        <v>675.5494601235133</v>
       </c>
       <c r="O6" t="n">
-        <v>785.3166962490201</v>
+        <v>935.9625242160054</v>
       </c>
       <c r="P6" t="n">
         <v>977.3180709271187</v>
@@ -4671,25 +4671,25 @@
         <v>1052.968135806666</v>
       </c>
       <c r="S6" t="n">
-        <v>1052.968135806666</v>
+        <v>880.4795283993074</v>
       </c>
       <c r="T6" t="n">
-        <v>1052.968135806666</v>
+        <v>880.4795283993074</v>
       </c>
       <c r="U6" t="n">
-        <v>1052.968135806666</v>
+        <v>652.2591996415122</v>
       </c>
       <c r="V6" t="n">
-        <v>817.8160275749237</v>
+        <v>652.2591996415122</v>
       </c>
       <c r="W6" t="n">
-        <v>563.5786708467222</v>
+        <v>398.0218429133105</v>
       </c>
       <c r="X6" t="n">
-        <v>355.7271706411893</v>
+        <v>190.1703427077777</v>
       </c>
       <c r="Y6" t="n">
-        <v>147.9668718762354</v>
+        <v>21.05936271613333</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>182.5089274706535</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="C7" t="n">
-        <v>182.5089274706535</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="D7" t="n">
-        <v>182.5089274706535</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="E7" t="n">
-        <v>182.5089274706535</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F7" t="n">
-        <v>182.5089274706535</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G7" t="n">
-        <v>182.5089274706535</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H7" t="n">
-        <v>182.5089274706535</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I7" t="n">
-        <v>112.3979106539025</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J7" t="n">
         <v>21.05936271613333</v>
@@ -4768,7 +4768,7 @@
         <v>182.5089274706535</v>
       </c>
       <c r="Y7" t="n">
-        <v>182.5089274706535</v>
+        <v>21.05936271613333</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1925.647594182928</v>
+        <v>2122.991424219416</v>
       </c>
       <c r="C8" t="n">
-        <v>1556.685077242516</v>
+        <v>1754.028907279005</v>
       </c>
       <c r="D8" t="n">
-        <v>1198.419378635766</v>
+        <v>1754.028907279005</v>
       </c>
       <c r="E8" t="n">
-        <v>964.2002506403566</v>
+        <v>1368.24065468076</v>
       </c>
       <c r="F8" t="n">
-        <v>957.2547498911531</v>
+        <v>957.2547498911529</v>
       </c>
       <c r="G8" t="n">
-        <v>539.1167436932435</v>
+        <v>539.1167436932434</v>
       </c>
       <c r="H8" t="n">
         <v>210.1380174775992</v>
       </c>
       <c r="I8" t="n">
-        <v>49.95626937293282</v>
+        <v>49.95626937293295</v>
       </c>
       <c r="J8" t="n">
-        <v>151.233498375927</v>
+        <v>151.2334983759276</v>
       </c>
       <c r="K8" t="n">
-        <v>423.7666154858242</v>
+        <v>423.7666154858256</v>
       </c>
       <c r="L8" t="n">
-        <v>814.1446738295776</v>
+        <v>814.1446738295799</v>
       </c>
       <c r="M8" t="n">
-        <v>1265.122027009108</v>
+        <v>1265.122027009111</v>
       </c>
       <c r="N8" t="n">
-        <v>1708.764667699576</v>
+        <v>1708.76466769958</v>
       </c>
       <c r="O8" t="n">
-        <v>2082.496195248757</v>
+        <v>2082.496195248762</v>
       </c>
       <c r="P8" t="n">
-        <v>2363.793024519968</v>
+        <v>2363.793024519974</v>
       </c>
       <c r="Q8" t="n">
-        <v>2497.813468646641</v>
+        <v>2497.813468646647</v>
       </c>
       <c r="R8" t="n">
-        <v>2497.813468646641</v>
+        <v>2497.813468646647</v>
       </c>
       <c r="S8" t="n">
-        <v>2497.813468646641</v>
+        <v>2497.813468646647</v>
       </c>
       <c r="T8" t="n">
-        <v>2278.416249453042</v>
+        <v>2497.813468646647</v>
       </c>
       <c r="U8" t="n">
-        <v>2278.416249453042</v>
+        <v>2497.813468646647</v>
       </c>
       <c r="V8" t="n">
-        <v>2278.416249453042</v>
+        <v>2497.813468646647</v>
       </c>
       <c r="W8" t="n">
-        <v>1925.647594182928</v>
+        <v>2497.813468646647</v>
       </c>
       <c r="X8" t="n">
-        <v>1925.647594182928</v>
+        <v>2497.813468646647</v>
       </c>
       <c r="Y8" t="n">
-        <v>1925.647594182928</v>
+        <v>2497.813468646647</v>
       </c>
     </row>
     <row r="9">
@@ -4857,16 +4857,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>949.4778164787124</v>
+        <v>829.476172494695</v>
       </c>
       <c r="C9" t="n">
-        <v>775.0247871975854</v>
+        <v>655.023143213568</v>
       </c>
       <c r="D9" t="n">
-        <v>626.0903775363341</v>
+        <v>506.0887335523167</v>
       </c>
       <c r="E9" t="n">
-        <v>466.8529225308786</v>
+        <v>506.0887335523167</v>
       </c>
       <c r="F9" t="n">
         <v>359.5541755792017</v>
@@ -4878,55 +4878,55 @@
         <v>115.2079200158657</v>
       </c>
       <c r="I9" t="n">
-        <v>49.95626937293282</v>
+        <v>49.95626937293295</v>
       </c>
       <c r="J9" t="n">
-        <v>116.5829134656357</v>
+        <v>116.5829134656361</v>
       </c>
       <c r="K9" t="n">
-        <v>357.0793034706106</v>
+        <v>357.0793034706115</v>
       </c>
       <c r="L9" t="n">
-        <v>741.8607752170335</v>
+        <v>741.8607752170351</v>
       </c>
       <c r="M9" t="n">
-        <v>1242.861825415886</v>
+        <v>1070.230442565947</v>
       </c>
       <c r="N9" t="n">
-        <v>1772.829896025808</v>
+        <v>1600.19851317587</v>
       </c>
       <c r="O9" t="n">
-        <v>2018.600081866188</v>
+        <v>2018.600081866193</v>
       </c>
       <c r="P9" t="n">
-        <v>2337.40115999665</v>
+        <v>2337.401159996656</v>
       </c>
       <c r="Q9" t="n">
-        <v>2497.813468646641</v>
+        <v>2497.813468646647</v>
       </c>
       <c r="R9" t="n">
-        <v>2441.813261956818</v>
+        <v>2441.813261956825</v>
       </c>
       <c r="S9" t="n">
-        <v>2281.909062496292</v>
+        <v>2330.122755532343</v>
       </c>
       <c r="T9" t="n">
-        <v>2082.654836293455</v>
+        <v>2130.868529329506</v>
       </c>
       <c r="U9" t="n">
-        <v>1854.479080409143</v>
+        <v>1902.692773445194</v>
       </c>
       <c r="V9" t="n">
-        <v>1619.326972177401</v>
+        <v>1667.540665213451</v>
       </c>
       <c r="W9" t="n">
-        <v>1365.089615449199</v>
+        <v>1413.30330848525</v>
       </c>
       <c r="X9" t="n">
-        <v>1157.238115243666</v>
+        <v>1205.451808279717</v>
       </c>
       <c r="Y9" t="n">
-        <v>949.4778164787124</v>
+        <v>997.6915095147631</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>660.0467845406947</v>
+        <v>49.95626937293295</v>
       </c>
       <c r="C10" t="n">
-        <v>660.0467845406947</v>
+        <v>49.95626937293295</v>
       </c>
       <c r="D10" t="n">
-        <v>660.0467845406947</v>
+        <v>49.95626937293295</v>
       </c>
       <c r="E10" t="n">
-        <v>660.0467845406947</v>
+        <v>49.95626937293295</v>
       </c>
       <c r="F10" t="n">
-        <v>513.1568370427843</v>
+        <v>49.95626937293295</v>
       </c>
       <c r="G10" t="n">
-        <v>344.0788975121915</v>
+        <v>49.95626937293295</v>
       </c>
       <c r="H10" t="n">
-        <v>185.6357958082776</v>
+        <v>49.95626937293295</v>
       </c>
       <c r="I10" t="n">
-        <v>101.1372401188104</v>
+        <v>49.95626937293295</v>
       </c>
       <c r="J10" t="n">
-        <v>49.95626937293282</v>
+        <v>49.95626937293295</v>
       </c>
       <c r="K10" t="n">
-        <v>97.36075951454174</v>
+        <v>97.36075951454217</v>
       </c>
       <c r="L10" t="n">
-        <v>213.5486207040353</v>
+        <v>213.5486207040361</v>
       </c>
       <c r="M10" t="n">
-        <v>346.4415526826365</v>
+        <v>346.4415526826376</v>
       </c>
       <c r="N10" t="n">
-        <v>481.6092041909476</v>
+        <v>481.6092041909491</v>
       </c>
       <c r="O10" t="n">
-        <v>590.4421123627385</v>
+        <v>590.4421123627403</v>
       </c>
       <c r="P10" t="n">
-        <v>660.0467845406947</v>
+        <v>660.0467845406968</v>
       </c>
       <c r="Q10" t="n">
-        <v>660.0467845406947</v>
+        <v>660.0467845406968</v>
       </c>
       <c r="R10" t="n">
-        <v>660.0467845406947</v>
+        <v>508.3867003012076</v>
       </c>
       <c r="S10" t="n">
-        <v>660.0467845406947</v>
+        <v>508.3867003012076</v>
       </c>
       <c r="T10" t="n">
-        <v>660.0467845406947</v>
+        <v>508.3867003012076</v>
       </c>
       <c r="U10" t="n">
-        <v>660.0467845406947</v>
+        <v>508.3867003012076</v>
       </c>
       <c r="V10" t="n">
-        <v>660.0467845406947</v>
+        <v>253.7022120953207</v>
       </c>
       <c r="W10" t="n">
-        <v>660.0467845406947</v>
+        <v>49.95626937293295</v>
       </c>
       <c r="X10" t="n">
-        <v>660.0467845406947</v>
+        <v>49.95626937293295</v>
       </c>
       <c r="Y10" t="n">
-        <v>660.0467845406947</v>
+        <v>49.95626937293295</v>
       </c>
     </row>
     <row r="11">
@@ -5018,19 +5018,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155874</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805455</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
@@ -5039,25 +5039,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5066,7 +5066,7 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141867</v>
@@ -5118,13 +5118,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>901.674922584592</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M12" t="n">
         <v>1514.038914395485</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>199.5300356889273</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C13" t="n">
-        <v>199.5300356889273</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>199.5300356889273</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>199.5300356889273</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>199.5300356889273</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>199.5300356889273</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5197,7 +5197,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
         <v>259.7851881688071</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247859</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>675.0071030383442</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V13" t="n">
-        <v>420.3226148324575</v>
+        <v>1186.001039296941</v>
       </c>
       <c r="W13" t="n">
-        <v>420.3226148324575</v>
+        <v>896.58386925998</v>
       </c>
       <c r="X13" t="n">
-        <v>420.3226148324575</v>
+        <v>668.5943183619627</v>
       </c>
       <c r="Y13" t="n">
-        <v>199.5300356889273</v>
+        <v>447.8017392184325</v>
       </c>
     </row>
     <row r="14">
@@ -5261,22 +5261,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514074</v>
@@ -5285,7 +5285,7 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5309,16 +5309,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614725</v>
@@ -5355,28 +5355,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>644.6755122555218</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>891.4406401619858</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441947</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5437,19 +5437,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1164.055751909233</v>
       </c>
       <c r="U16" t="n">
-        <v>1224.589098024648</v>
+        <v>874.9271131227914</v>
       </c>
       <c r="V16" t="n">
-        <v>1224.589098024648</v>
+        <v>620.2426249169046</v>
       </c>
       <c r="W16" t="n">
-        <v>1224.589098024648</v>
+        <v>330.8254548799439</v>
       </c>
       <c r="X16" t="n">
-        <v>1224.589098024648</v>
+        <v>102.8359039819266</v>
       </c>
       <c r="Y16" t="n">
-        <v>1003.796518881118</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
         <v>1701.09316900344</v>
@@ -5501,10 +5501,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155881</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5513,25 +5513,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5546,16 +5546,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5598,19 +5598,19 @@
         <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619858</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>1564.731711769082</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>1894.594339433114</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2174.134404651812</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2379.156885434021</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5674,10 +5674,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
         <v>779.0639759471192</v>
@@ -5695,10 +5695,10 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1375.025382843599</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
         <v>1151.239967633105</v>
@@ -5726,43 +5726,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5786,16 +5786,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5829,28 +5829,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>806.1650729342614</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1113.485206214223</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1443.347833878256</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,10 +5884,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>105.8287400488908</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>105.8287400488908</v>
       </c>
       <c r="D22" t="n">
         <v>97.21709146028584</v>
@@ -5908,16 +5908,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1379.229518531122</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U22" t="n">
-        <v>1090.10087974468</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V22" t="n">
-        <v>835.4163915387936</v>
+        <v>844.0280401273988</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018332</v>
+        <v>554.6108700904382</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>326.6213191924209</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>105.8287400488908</v>
       </c>
     </row>
     <row r="23">
@@ -5963,40 +5963,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
         <v>3183.709822619127</v>
@@ -6005,7 +6005,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6023,16 +6023,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6066,22 +6066,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1453.977845975556</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347409</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U25" t="n">
-        <v>1090.10087974468</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V25" t="n">
-        <v>835.4163915387936</v>
+        <v>644.1080300429513</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018332</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6224,16 +6224,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
         <v>3183.709822619127</v>
@@ -6242,7 +6242,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6266,10 +6266,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6303,28 +6303,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M27" t="n">
-        <v>1302.911127126629</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1646.274692278279</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1925.814757496976</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>423.4414869507319</v>
+        <v>219.4532982319362</v>
       </c>
       <c r="C28" t="n">
-        <v>423.4414869507319</v>
+        <v>219.4532982319362</v>
       </c>
       <c r="D28" t="n">
-        <v>423.4414869507319</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="E28" t="n">
-        <v>303.4088260090242</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F28" t="n">
-        <v>303.4088260090242</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G28" t="n">
-        <v>303.4088260090242</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H28" t="n">
-        <v>180.871250197653</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028586</v>
       </c>
       <c r="J28" t="n">
-        <v>136.9253959553315</v>
+        <v>136.9253959553314</v>
       </c>
       <c r="K28" t="n">
-        <v>314.4364122310787</v>
+        <v>314.4364122310786</v>
       </c>
       <c r="L28" t="n">
-        <v>589.4740692733437</v>
+        <v>589.4740692733435</v>
       </c>
       <c r="M28" t="n">
-        <v>888.3664240716623</v>
+        <v>888.3664240716619</v>
       </c>
       <c r="N28" t="n">
-        <v>1186.236145130346</v>
+        <v>1186.236145130345</v>
       </c>
       <c r="O28" t="n">
         <v>1447.436735166878</v>
       </c>
       <c r="P28" t="n">
-        <v>1651.362111803697</v>
+        <v>1651.362111803696</v>
       </c>
       <c r="Q28" t="n">
-        <v>1717.521166806989</v>
+        <v>1717.521166806988</v>
       </c>
       <c r="R28" t="n">
-        <v>1717.521166806989</v>
+        <v>1634.326496009499</v>
       </c>
       <c r="S28" t="n">
-        <v>1717.521166806989</v>
+        <v>1462.286918565736</v>
       </c>
       <c r="T28" t="n">
-        <v>1521.61618423718</v>
+        <v>1315.722476031569</v>
       </c>
       <c r="U28" t="n">
-        <v>1260.367978091424</v>
+        <v>1054.474269885812</v>
       </c>
       <c r="V28" t="n">
-        <v>1033.563922526222</v>
+        <v>827.6702143206105</v>
       </c>
       <c r="W28" t="n">
-        <v>772.0271851299469</v>
+        <v>566.1334769243354</v>
       </c>
       <c r="X28" t="n">
-        <v>571.918066872615</v>
+        <v>566.1334769243354</v>
       </c>
       <c r="Y28" t="n">
-        <v>571.918066872615</v>
+        <v>373.2213304214906</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6461,10 +6461,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6506,7 +6506,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6540,28 +6540,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>634.0455001582214</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>880.8106280646855</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M30" t="n">
-        <v>1188.130761344647</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N30" t="n">
-        <v>1517.99338900868</v>
+        <v>1646.274692278279</v>
       </c>
       <c r="O30" t="n">
-        <v>1797.533454227377</v>
+        <v>1925.814757496976</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>336.2592672592186</v>
+        <v>170.1127581962955</v>
       </c>
       <c r="C31" t="n">
-        <v>336.2592672592186</v>
+        <v>170.1127581962955</v>
       </c>
       <c r="D31" t="n">
-        <v>336.2592672592186</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>216.2266063175109</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>136.9253959553313</v>
+        <v>136.9253959553314</v>
       </c>
       <c r="K31" t="n">
         <v>314.4364122310785</v>
@@ -6643,28 +6643,28 @@
         <v>1717.521166806988</v>
       </c>
       <c r="R31" t="n">
-        <v>1717.521166806988</v>
+        <v>1634.326496009499</v>
       </c>
       <c r="S31" t="n">
-        <v>1717.521166806988</v>
+        <v>1462.286918565737</v>
       </c>
       <c r="T31" t="n">
-        <v>1521.616184237179</v>
+        <v>1266.381935995928</v>
       </c>
       <c r="U31" t="n">
-        <v>1260.367978091423</v>
+        <v>1005.133729850171</v>
       </c>
       <c r="V31" t="n">
-        <v>1033.563922526221</v>
+        <v>778.3296742849699</v>
       </c>
       <c r="W31" t="n">
-        <v>772.0271851299461</v>
+        <v>516.7929368886946</v>
       </c>
       <c r="X31" t="n">
-        <v>682.9394459516177</v>
+        <v>516.7929368886946</v>
       </c>
       <c r="Y31" t="n">
-        <v>490.027299448773</v>
+        <v>323.8807903858499</v>
       </c>
     </row>
     <row r="32">
@@ -6677,31 +6677,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6716,28 +6716,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
         <v>3205.060556590537</v>
@@ -6765,37 +6765,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>2013.406634128704</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2292.946699347401</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q33" t="n">
         <v>2612.943493278838</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
@@ -6853,13 +6853,13 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L34" t="n">
         <v>709.8489468649691</v>
@@ -6889,7 +6889,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
         <v>1304.027639859417</v>
@@ -6901,7 +6901,7 @@
         <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="35">
@@ -6911,55 +6911,55 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6971,16 +6971,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7002,40 +7002,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M36" t="n">
-        <v>1406.737288300438</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N36" t="n">
-        <v>1736.599915964471</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O36" t="n">
-        <v>2016.139981183168</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,43 +7069,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525398</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
         <v>1688.186490350129</v>
@@ -7117,28 +7117,28 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="38">
@@ -7172,7 +7172,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514085</v>
@@ -7208,13 +7208,13 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614725</v>
@@ -7251,22 +7251,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>1163.495507227045</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M39" t="n">
-        <v>1470.815640507006</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1646.274692278279</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>2315.738453580939</v>
       </c>
       <c r="P39" t="n">
         <v>2536.440602918915</v>
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
         <v>398.9545963083204</v>
@@ -7333,7 +7333,7 @@
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
         <v>709.8489468649691</v>
@@ -7351,13 +7351,13 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
@@ -7375,7 +7375,7 @@
         <v>924.2611010045207</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
         <v>488.193237080547</v>
@@ -7409,10 +7409,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
@@ -7445,16 +7445,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7488,28 +7488,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>659.3731057211721</v>
+        <v>539.5926371926337</v>
       </c>
       <c r="M42" t="n">
-        <v>1124.115218311523</v>
+        <v>846.9127704725952</v>
       </c>
       <c r="N42" t="n">
-        <v>1453.977845975555</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O42" t="n">
-        <v>2123.441607278215</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108335</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F43" t="n">
         <v>320.8847398504514</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103131</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045214</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010323</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="44">
@@ -7628,16 +7628,16 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822462</v>
@@ -7646,28 +7646,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7725,22 +7725,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.466478653857</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P45" t="n">
         <v>2536.440602918915</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7810,7 +7810,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7840,16 +7840,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8061,13 +8061,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>136.8385818314783</v>
       </c>
       <c r="M3" t="n">
-        <v>244.9354681589041</v>
+        <v>384.6945110063436</v>
       </c>
       <c r="N3" t="n">
-        <v>129.2864630672354</v>
+        <v>223.5291836917767</v>
       </c>
       <c r="O3" t="n">
         <v>385.2788254813443</v>
@@ -8301,16 +8301,16 @@
         <v>127.806478742992</v>
       </c>
       <c r="M6" t="n">
-        <v>240.6662713124298</v>
+        <v>392.8337743093847</v>
       </c>
       <c r="N6" t="n">
-        <v>381.7094952808119</v>
+        <v>381.709495280812</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>166.2952656429823</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8538,13 +8538,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>291.3299295581401</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>219.4871850848681</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8766,16 +8766,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M12" t="n">
-        <v>308.1251096272039</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -9003,16 +9003,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>234.4116509503169</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>189.0022427662468</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9024,10 +9024,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9167,7 +9167,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504507</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9246,10 +9246,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>96.03744927814716</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9258,10 +9258,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>158.872441903933</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9477,13 +9477,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>274.3657496970647</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9492,16 +9492,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>285.1031356539336</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9960,22 +9960,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>423.3376789165115</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>188.8856946302408</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,10 +10188,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>223.6742649934479</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10200,19 +10200,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>199.6230805871095</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,28 +10425,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208064</v>
+        <v>28.12263706263059</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10604,7 +10604,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10668,25 +10668,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>199.7396287231155</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>349.7653003338571</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571165</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,28 +10902,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>253.7371603504735</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>15.83804904622903</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571165</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11136,19 +11136,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>5.100663089359983</v>
       </c>
       <c r="M42" t="n">
-        <v>159.012100313524</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11157,10 +11157,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11382,22 +11382,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>176.7176547498456</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.350599632132798e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23431,7 +23431,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>47.62401358118103</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>140.2723743590792</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23659,19 +23659,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -23707,19 +23707,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>236.2010126490447</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>213.0220289556704</v>
       </c>
     </row>
     <row r="17">
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>75.26883114644352</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>185.2331835502359</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>140.0899409154935</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633775</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0576765518761</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633775</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,25 +24409,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>103.0576765518762</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>143.5176026737843</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>5.23853774499452</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>139.6451927843493</v>
       </c>
       <c r="D28" t="n">
-        <v>121.0138447039338</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>118.8323343322907</v>
       </c>
       <c r="F28" t="n">
         <v>117.8194197086527</v>
       </c>
       <c r="G28" t="n">
-        <v>138.891940149099</v>
+        <v>138.8919401490991</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>121.3122000532576</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>82.81761714999348</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>82.36272408951422</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>170.3191816693247</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>48.8471346352847</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>198.1080270747586</v>
       </c>
       <c r="Y28" t="n">
-        <v>190.9830250378162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,13 +24841,13 @@
         <v>139.6451927843493</v>
       </c>
       <c r="D31" t="n">
-        <v>121.0138447039338</v>
+        <v>48.84713463528425</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>118.8323343322907</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>117.8194197086527</v>
       </c>
       <c r="G31" t="n">
         <v>138.8919401490991</v>
@@ -24856,7 +24856,7 @@
         <v>121.3122000532576</v>
       </c>
       <c r="I31" t="n">
-        <v>82.81761714999347</v>
+        <v>82.81761714999348</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>82.36272408951427</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>170.3191816693247</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>109.9111652882135</v>
+        <v>198.1080270747586</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1377566.007956822</v>
+        <v>1377566.007956823</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1377566.007956823</v>
+        <v>1377566.007956822</v>
       </c>
     </row>
     <row r="10">
@@ -26320,40 +26320,40 @@
         <v>20526.04424660709</v>
       </c>
       <c r="E2" t="n">
-        <v>19551.45298688543</v>
+        <v>19551.45298688544</v>
       </c>
       <c r="F2" t="n">
         <v>19551.45298688544</v>
       </c>
       <c r="G2" t="n">
+        <v>19551.45298688543</v>
+      </c>
+      <c r="H2" t="n">
         <v>19551.45298688544</v>
-      </c>
-      <c r="H2" t="n">
-        <v>19551.45298688543</v>
       </c>
       <c r="I2" t="n">
         <v>19551.45298688543</v>
       </c>
       <c r="J2" t="n">
-        <v>19946.27992707446</v>
+        <v>19946.27992707447</v>
       </c>
       <c r="K2" t="n">
-        <v>19946.27992707446</v>
+        <v>19946.27992707445</v>
       </c>
       <c r="L2" t="n">
-        <v>20526.04424660707</v>
+        <v>20526.04424660708</v>
       </c>
       <c r="M2" t="n">
+        <v>20526.04424660708</v>
+      </c>
+      <c r="N2" t="n">
+        <v>20526.04424660708</v>
+      </c>
+      <c r="O2" t="n">
         <v>20526.04424660709</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>20526.04424660709</v>
-      </c>
-      <c r="O2" t="n">
-        <v>20526.04424660707</v>
-      </c>
-      <c r="P2" t="n">
-        <v>20526.04424660708</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>23645.34018189508</v>
       </c>
       <c r="D3" t="n">
-        <v>379260.2152038452</v>
+        <v>379260.2152038469</v>
       </c>
       <c r="E3" t="n">
-        <v>574504.094707713</v>
+        <v>574504.0947077114</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,28 +26381,28 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>86069.67419732157</v>
+        <v>86069.67419732158</v>
       </c>
       <c r="K3" t="n">
-        <v>4807.454491749981</v>
+        <v>4807.454491750026</v>
       </c>
       <c r="L3" t="n">
-        <v>123843.5469857403</v>
+        <v>123843.5469857406</v>
       </c>
       <c r="M3" t="n">
-        <v>147219.823843209</v>
+        <v>147219.8238432087</v>
       </c>
       <c r="N3" t="n">
-        <v>5.684341886080801e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>22081.30265142274</v>
+        <v>22081.30265142278</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>311285.4917481206</v>
+        <v>311285.4917481207</v>
       </c>
       <c r="C4" t="n">
         <v>304469.3167485496</v>
       </c>
       <c r="D4" t="n">
-        <v>190217.8827788343</v>
+        <v>190217.8827788338</v>
       </c>
       <c r="E4" t="n">
         <v>29303.54555230233</v>
@@ -26433,31 +26433,31 @@
         <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
-        <v>29303.54555230236</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
-        <v>29303.54555230236</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
-        <v>38385.85680940063</v>
+        <v>38385.85680940059</v>
       </c>
       <c r="K4" t="n">
-        <v>38385.85680940061</v>
+        <v>38385.85680940059</v>
       </c>
       <c r="L4" t="n">
-        <v>51722.33279362278</v>
+        <v>51722.33279362286</v>
       </c>
       <c r="M4" t="n">
-        <v>51722.33279362279</v>
+        <v>51722.33279362287</v>
       </c>
       <c r="N4" t="n">
-        <v>51722.33279362281</v>
+        <v>51722.33279362283</v>
       </c>
       <c r="O4" t="n">
-        <v>51722.33279362279</v>
+        <v>51722.3327936228</v>
       </c>
       <c r="P4" t="n">
-        <v>51722.33279362283</v>
+        <v>51722.3327936228</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>50134.40740683334</v>
       </c>
       <c r="D5" t="n">
-        <v>78893.99020501081</v>
+        <v>78893.99020501092</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
@@ -26485,10 +26485,10 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>94307.76723946971</v>
@@ -26497,10 +26497,10 @@
         <v>94307.76723946971</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
@@ -26509,7 +26509,7 @@
         <v>97715.10582002538</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-424835.3304413527</v>
+        <v>-424835.3304413528</v>
       </c>
       <c r="C6" t="n">
         <v>-357723.0200906709</v>
       </c>
       <c r="D6" t="n">
-        <v>-627846.0439410834</v>
+        <v>-627846.0439410845</v>
       </c>
       <c r="E6" t="n">
-        <v>-676243.5132218464</v>
+        <v>-676340.9723478169</v>
       </c>
       <c r="F6" t="n">
-        <v>-101739.4185141335</v>
+        <v>-101836.8776401057</v>
       </c>
       <c r="G6" t="n">
-        <v>-101739.4185141335</v>
+        <v>-101836.8776401057</v>
       </c>
       <c r="H6" t="n">
-        <v>-101739.4185141336</v>
+        <v>-101836.8776401057</v>
       </c>
       <c r="I6" t="n">
-        <v>-101739.4185141336</v>
+        <v>-101836.8776401057</v>
       </c>
       <c r="J6" t="n">
-        <v>-198817.0183191175</v>
+        <v>-198874.9947510707</v>
       </c>
       <c r="K6" t="n">
-        <v>-117554.7986135458</v>
+        <v>-117612.7750454991</v>
       </c>
       <c r="L6" t="n">
-        <v>-252754.9413527814</v>
+        <v>-252754.9413527817</v>
       </c>
       <c r="M6" t="n">
-        <v>-276131.2182102501</v>
+        <v>-276131.2182102498</v>
       </c>
       <c r="N6" t="n">
-        <v>-128911.3943670412</v>
+        <v>-128911.3943670411</v>
       </c>
       <c r="O6" t="n">
-        <v>-150992.6970184638</v>
+        <v>-150992.6970184639</v>
       </c>
       <c r="P6" t="n">
         <v>-128911.3943670411</v>
@@ -26701,31 +26701,31 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>27.60162831427857</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="K2" t="n">
-        <v>27.60162831427851</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>23.01338268678938</v>
       </c>
       <c r="D3" t="n">
-        <v>334.8452055771496</v>
+        <v>334.8452055771509</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26753,31 +26753,31 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>263.2420339516666</v>
       </c>
       <c r="D4" t="n">
-        <v>624.4533671616603</v>
+        <v>624.4533671616618</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26923,13 +26923,13 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>27.60162831427851</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26941,10 +26941,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>27.60162831427843</v>
+        <v>27.60162831427848</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>19.33951979354706</v>
       </c>
       <c r="D3" t="n">
-        <v>311.8318228903602</v>
+        <v>311.8318228903615</v>
       </c>
       <c r="E3" t="n">
-        <v>495.5371998769506</v>
+        <v>495.5371998769493</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>18.67930159052418</v>
       </c>
       <c r="D4" t="n">
-        <v>361.2113332099937</v>
+        <v>361.2113332099952</v>
       </c>
       <c r="E4" t="n">
-        <v>590.7602760919128</v>
+        <v>590.7602760919112</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27039,10 +27039,10 @@
         <v>18.67930159052418</v>
       </c>
       <c r="L4" t="n">
-        <v>361.2113332099939</v>
+        <v>361.211333209995</v>
       </c>
       <c r="M4" t="n">
-        <v>590.7602760919126</v>
+        <v>590.7602760919112</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,13 +27160,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>27.60162831427851</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>18.67930159052418</v>
       </c>
       <c r="L4" t="n">
-        <v>361.2113332099937</v>
+        <v>361.2113332099952</v>
       </c>
       <c r="M4" t="n">
-        <v>590.7602760919128</v>
+        <v>590.7602760919112</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>130.4937691700638</v>
+        <v>285.0881989332642</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,7 +27388,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>162.313313380569</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>339.3235460419765</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>209.9064962068211</v>
       </c>
       <c r="J2" t="n">
         <v>10.69576364311372</v>
@@ -27424,28 +27424,28 @@
         <v>8.395781178313161</v>
       </c>
       <c r="R2" t="n">
-        <v>148.9413660216818</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>208.6835142066282</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>223.0311969618593</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3444713639914</v>
+        <v>6.781739002849009</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>104.6782363562706</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>141.6752062949112</v>
       </c>
     </row>
     <row r="3">
@@ -27455,16 +27455,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27473,7 +27473,7 @@
         <v>137.3356148920818</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.1591249337519</v>
       </c>
       <c r="I3" t="n">
         <v>89.12455904281175</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>99.6672001609758</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.5363898835276</v>
       </c>
       <c r="T3" t="n">
         <v>200.1328769967189</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9408621947163</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>20.76527873877779</v>
       </c>
       <c r="Y3" t="n">
-        <v>37.16592194104652</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>9.352396981471145</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27585,7 +27585,7 @@
         <v>176.9955073465141</v>
       </c>
       <c r="S4" t="n">
-        <v>223.9011423785076</v>
+        <v>86.81957671340956</v>
       </c>
       <c r="T4" t="n">
         <v>227.9172826158254</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>120.720753594952</v>
+        <v>119.491807711814</v>
       </c>
       <c r="C5" t="n">
-        <v>102.030857819341</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>311.2637137862018</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27637,7 +27637,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>4.097100052852153</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>206.9118586999128</v>
       </c>
       <c r="T5" t="n">
-        <v>222.6908602868995</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.3382516189322</v>
@@ -27704,7 +27704,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>19.43077832488282</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.2940166796957</v>
@@ -27743,16 +27743,16 @@
         <v>97.08446202703756</v>
       </c>
       <c r="S6" t="n">
-        <v>170.7637213332854</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>199.9652070090748</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9381254702172</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>38.26282558557645</v>
       </c>
     </row>
     <row r="7">
@@ -27792,10 +27792,10 @@
         <v>161.8582038473137</v>
       </c>
       <c r="I7" t="n">
-        <v>84.79256385362727</v>
+        <v>154.2024705022108</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="K7" t="n">
         <v>17.44799951871616</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>58.74958424511985</v>
       </c>
     </row>
     <row r="8">
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>11.66001768052189</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>150.0534333568067</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>65.31144901718737</v>
+        <v>65.31144901718704</v>
       </c>
       <c r="S8" t="n">
-        <v>178.34555653262</v>
+        <v>178.3455565326199</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.2032470016631</v>
       </c>
       <c r="U8" t="n">
         <v>251.2379639975001</v>
@@ -27913,7 +27913,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27929,7 +27929,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -27938,10 +27938,10 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>38.84345291122371</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -27980,7 +27980,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>47.73155610568335</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -28020,19 +28020,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3871601352868</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.8586706868748</v>
       </c>
       <c r="I10" t="n">
-        <v>53.63841397420688</v>
+        <v>137.2919841067794</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>50.66916103841864</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>35.6004172095448</v>
+        <v>35.60041720954461</v>
       </c>
       <c r="R10" t="n">
-        <v>150.1434833970944</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>213.4936757567854</v>
@@ -28068,10 +28068,10 @@
         <v>286.2860937624997</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>84.81451504142711</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29338,7 +29338,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>27.60162831427857</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="C28" t="n">
-        <v>27.60162831427857</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="D28" t="n">
-        <v>27.60162831427857</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="E28" t="n">
-        <v>27.60162831427857</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="F28" t="n">
-        <v>27.60162831427857</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="G28" t="n">
-        <v>27.60162831427857</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="H28" t="n">
-        <v>27.60162831427857</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="I28" t="n">
-        <v>27.60162831427857</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="J28" t="n">
-        <v>27.60162831427857</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="K28" t="n">
-        <v>27.60162831427857</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="L28" t="n">
-        <v>27.60162831427857</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="M28" t="n">
-        <v>27.60162831427857</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="N28" t="n">
-        <v>27.60162831427857</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="O28" t="n">
-        <v>27.60162831427857</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="P28" t="n">
-        <v>27.60162831427857</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="Q28" t="n">
-        <v>27.60162831427857</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="R28" t="n">
-        <v>27.60162831427857</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="S28" t="n">
-        <v>27.60162831427857</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="T28" t="n">
-        <v>27.60162831427857</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="U28" t="n">
-        <v>27.60162831427857</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="V28" t="n">
-        <v>27.60162831427857</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="W28" t="n">
-        <v>27.60162831427857</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="X28" t="n">
-        <v>27.60162831427857</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="Y28" t="n">
-        <v>27.60162831427857</v>
+        <v>27.60162831427852</v>
       </c>
     </row>
     <row r="29">
@@ -29578,7 +29578,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>27.60162831427851</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="C31" t="n">
-        <v>27.60162831427851</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="D31" t="n">
-        <v>27.60162831427851</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="E31" t="n">
-        <v>27.60162831427851</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="F31" t="n">
-        <v>27.60162831427851</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="G31" t="n">
-        <v>27.60162831427851</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="H31" t="n">
-        <v>27.60162831427851</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="I31" t="n">
-        <v>27.60162831427851</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="J31" t="n">
-        <v>27.60162831427851</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="K31" t="n">
-        <v>27.60162831427851</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="L31" t="n">
-        <v>27.60162831427851</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="M31" t="n">
-        <v>27.60162831427851</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="N31" t="n">
-        <v>27.60162831427851</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="O31" t="n">
-        <v>27.60162831427851</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="P31" t="n">
-        <v>27.60162831427851</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="Q31" t="n">
-        <v>27.60162831427851</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="R31" t="n">
-        <v>27.60162831427851</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="S31" t="n">
-        <v>27.60162831427851</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="T31" t="n">
-        <v>27.60162831427851</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="U31" t="n">
-        <v>27.60162831427851</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="V31" t="n">
-        <v>27.60162831427851</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="W31" t="n">
-        <v>27.60162831427851</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="X31" t="n">
-        <v>27.60162831427851</v>
+        <v>27.60162831427852</v>
       </c>
       <c r="Y31" t="n">
-        <v>27.60162831427851</v>
+        <v>27.60162831427852</v>
       </c>
     </row>
     <row r="32">
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30289,7 +30289,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C43" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D43" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E43" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F43" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G43" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H43" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I43" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J43" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K43" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L43" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M43" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N43" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O43" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P43" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R43" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S43" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T43" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U43" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V43" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W43" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X43" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="44">
@@ -30697,7 +30697,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.34611137920462</v>
+        <v>1.346111379204626</v>
       </c>
       <c r="H8" t="n">
-        <v>13.78586316227932</v>
+        <v>13.78586316227937</v>
       </c>
       <c r="I8" t="n">
-        <v>51.89595894678617</v>
+        <v>51.89595894678638</v>
       </c>
       <c r="J8" t="n">
-        <v>114.2495206707682</v>
+        <v>114.2495206707687</v>
       </c>
       <c r="K8" t="n">
-        <v>171.2304153524998</v>
+        <v>171.2304153525005</v>
       </c>
       <c r="L8" t="n">
-        <v>212.4264714738333</v>
+        <v>212.4264714738341</v>
       </c>
       <c r="M8" t="n">
-        <v>236.3653797137634</v>
+        <v>236.3653797137644</v>
       </c>
       <c r="N8" t="n">
-        <v>240.1900186699286</v>
+        <v>240.1900186699295</v>
       </c>
       <c r="O8" t="n">
-        <v>226.8046236429626</v>
+        <v>226.8046236429635</v>
       </c>
       <c r="P8" t="n">
-        <v>193.5724989688485</v>
+        <v>193.5724989688493</v>
       </c>
       <c r="Q8" t="n">
-        <v>145.364885201083</v>
+        <v>145.3648852010836</v>
       </c>
       <c r="R8" t="n">
-        <v>84.55766892396231</v>
+        <v>84.55766892396264</v>
       </c>
       <c r="S8" t="n">
-        <v>30.67451305362531</v>
+        <v>30.67451305362544</v>
       </c>
       <c r="T8" t="n">
-        <v>5.892602562468229</v>
+        <v>5.892602562468252</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1076889103363696</v>
+        <v>0.10768891033637</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7202330836942462</v>
+        <v>0.7202330836942491</v>
       </c>
       <c r="H9" t="n">
-        <v>6.955935308310221</v>
+        <v>6.955935308310249</v>
       </c>
       <c r="I9" t="n">
-        <v>24.79749871491155</v>
+        <v>24.79749871491165</v>
       </c>
       <c r="J9" t="n">
-        <v>68.04623182393755</v>
+        <v>68.04623182393782</v>
       </c>
       <c r="K9" t="n">
-        <v>116.301848431452</v>
+        <v>116.3018484314525</v>
       </c>
       <c r="L9" t="n">
-        <v>156.3821877556301</v>
+        <v>156.3821877556307</v>
       </c>
       <c r="M9" t="n">
-        <v>182.4906370395465</v>
+        <v>182.4906370395472</v>
       </c>
       <c r="N9" t="n">
-        <v>187.3206211841452</v>
+        <v>187.3206211841459</v>
       </c>
       <c r="O9" t="n">
-        <v>171.3617723296569</v>
+        <v>171.3617723296576</v>
       </c>
       <c r="P9" t="n">
-        <v>137.5329298152636</v>
+        <v>137.5329298152641</v>
       </c>
       <c r="Q9" t="n">
-        <v>91.93712135016379</v>
+        <v>91.93712135016415</v>
       </c>
       <c r="R9" t="n">
-        <v>44.71762952971822</v>
+        <v>44.71762952971839</v>
       </c>
       <c r="S9" t="n">
-        <v>13.37801363791724</v>
+        <v>13.37801363791729</v>
       </c>
       <c r="T9" t="n">
-        <v>2.90304475401321</v>
+        <v>2.903044754013222</v>
       </c>
       <c r="U9" t="n">
-        <v>0.04738375550620043</v>
+        <v>0.04738375550620062</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6038192231719089</v>
+        <v>0.6038192231719113</v>
       </c>
       <c r="H10" t="n">
-        <v>5.368501820564795</v>
+        <v>5.368501820564815</v>
       </c>
       <c r="I10" t="n">
-        <v>18.15849082047887</v>
+        <v>18.15849082047894</v>
       </c>
       <c r="J10" t="n">
-        <v>42.69001907825396</v>
+        <v>42.69001907825413</v>
       </c>
       <c r="K10" t="n">
-        <v>70.1528152012454</v>
+        <v>70.15281520124569</v>
       </c>
       <c r="L10" t="n">
-        <v>89.77145068866729</v>
+        <v>89.77145068866763</v>
       </c>
       <c r="M10" t="n">
-        <v>94.65140786502931</v>
+        <v>94.65140786502968</v>
       </c>
       <c r="N10" t="n">
-        <v>92.40080894229773</v>
+        <v>92.4008089422981</v>
       </c>
       <c r="O10" t="n">
-        <v>85.34710256251677</v>
+        <v>85.34710256251709</v>
       </c>
       <c r="P10" t="n">
-        <v>73.02919040980976</v>
+        <v>73.02919040981004</v>
       </c>
       <c r="Q10" t="n">
-        <v>50.56162604214958</v>
+        <v>50.56162604214978</v>
       </c>
       <c r="R10" t="n">
-        <v>27.1499079800751</v>
+        <v>27.14990798007521</v>
       </c>
       <c r="S10" t="n">
-        <v>10.52292228018681</v>
+        <v>10.52292228018685</v>
       </c>
       <c r="T10" t="n">
-        <v>2.57995486264361</v>
+        <v>2.57995486264362</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03293559399119507</v>
+        <v>0.0329355939911952</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34781,13 +34781,13 @@
         <v>127.8998415301111</v>
       </c>
       <c r="L3" t="n">
-        <v>234.0017634719808</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>104.8036895137028</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>94.24272062454131</v>
       </c>
       <c r="O3" t="n">
         <v>244.5627323611424</v>
@@ -35021,7 +35021,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>111.0745309547117</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="N6" t="n">
         <v>263.2420339516666</v>
@@ -35030,7 +35030,7 @@
         <v>263.0434990833253</v>
       </c>
       <c r="P6" t="n">
-        <v>193.9407825031299</v>
+        <v>41.77327950617509</v>
       </c>
       <c r="Q6" t="n">
         <v>76.41420694903813</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>102.3002313161557</v>
+        <v>102.3002313161562</v>
       </c>
       <c r="K8" t="n">
-        <v>275.285976878684</v>
+        <v>275.2859768786847</v>
       </c>
       <c r="L8" t="n">
-        <v>394.3212710542965</v>
+        <v>394.3212710542973</v>
       </c>
       <c r="M8" t="n">
-        <v>455.5326799793232</v>
+        <v>455.5326799793241</v>
       </c>
       <c r="N8" t="n">
-        <v>448.1238794853218</v>
+        <v>448.1238794853228</v>
       </c>
       <c r="O8" t="n">
-        <v>377.5065934840213</v>
+        <v>377.5065934840221</v>
       </c>
       <c r="P8" t="n">
-        <v>284.1382113850617</v>
+        <v>284.1382113850624</v>
       </c>
       <c r="Q8" t="n">
-        <v>135.3741859865382</v>
+        <v>135.3741859865388</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>67.29964049767969</v>
+        <v>67.29964049767996</v>
       </c>
       <c r="K9" t="n">
-        <v>242.9256464696716</v>
+        <v>242.9256464696721</v>
       </c>
       <c r="L9" t="n">
-        <v>388.6681532792151</v>
+        <v>388.6681532792157</v>
       </c>
       <c r="M9" t="n">
-        <v>506.0616668675281</v>
+        <v>331.686532675669</v>
       </c>
       <c r="N9" t="n">
-        <v>535.3212834443655</v>
+        <v>535.3212834443661</v>
       </c>
       <c r="O9" t="n">
-        <v>248.2527129700806</v>
+        <v>422.6278471619427</v>
       </c>
       <c r="P9" t="n">
-        <v>322.0212910408705</v>
+        <v>322.021291040871</v>
       </c>
       <c r="Q9" t="n">
-        <v>162.0326349999914</v>
+        <v>162.0326349999917</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>47.88332337536255</v>
+        <v>47.88332337536283</v>
       </c>
       <c r="L10" t="n">
-        <v>117.3614759489834</v>
+        <v>117.3614759489838</v>
       </c>
       <c r="M10" t="n">
-        <v>134.2352848268699</v>
+        <v>134.2352848268703</v>
       </c>
       <c r="N10" t="n">
-        <v>136.5329813215263</v>
+        <v>136.5329813215267</v>
       </c>
       <c r="O10" t="n">
-        <v>109.9322304765564</v>
+        <v>109.9322304765568</v>
       </c>
       <c r="P10" t="n">
-        <v>70.30774967470325</v>
+        <v>70.30774967470353</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,16 +35486,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M12" t="n">
-        <v>618.5494866776701</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980128</v>
@@ -35723,16 +35723,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>384.9870895382561</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>499.426619816713</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980128</v>
@@ -35744,10 +35744,10 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35887,7 +35887,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M17" t="n">
         <v>805.3296502221116</v>
@@ -35966,10 +35966,10 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>345.2951542341714</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980128</v>
@@ -35978,10 +35978,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>246.8854746890071</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>523.623454653089</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556559</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>595.5275127043998</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556559</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
         <v>150.5754385879392</v>
@@ -36680,22 +36680,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>756.5322523145245</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>395.9791095617654</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>40.1093984798441</v>
+        <v>40.10939847984403</v>
       </c>
       <c r="K28" t="n">
         <v>179.3040568441891</v>
@@ -36759,19 +36759,19 @@
         <v>277.8158151942071</v>
       </c>
       <c r="M28" t="n">
-        <v>301.9114694932511</v>
+        <v>301.911469493251</v>
       </c>
       <c r="N28" t="n">
-        <v>300.8785061198822</v>
+        <v>300.8785061198821</v>
       </c>
       <c r="O28" t="n">
-        <v>263.8389798348815</v>
+        <v>263.8389798348813</v>
       </c>
       <c r="P28" t="n">
         <v>205.9852289260793</v>
       </c>
       <c r="Q28" t="n">
-        <v>66.82732828615333</v>
+        <v>66.82732828615326</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>374.2497035813871</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>406.7164955186342</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>40.10939847984405</v>
+        <v>40.10939847984403</v>
       </c>
       <c r="K31" t="n">
         <v>179.3040568441891</v>
@@ -36999,16 +36999,16 @@
         <v>301.911469493251</v>
       </c>
       <c r="N31" t="n">
-        <v>300.8785061198822</v>
+        <v>300.8785061198821</v>
       </c>
       <c r="O31" t="n">
-        <v>263.8389798348814</v>
+        <v>263.8389798348813</v>
       </c>
       <c r="P31" t="n">
         <v>205.9852289260793</v>
       </c>
       <c r="Q31" t="n">
-        <v>66.82732828615327</v>
+        <v>66.82732828615326</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523311</v>
+        <v>235.2160519941552</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37324,10 +37324,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>510.1640057735818</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>632.1290025749652</v>
       </c>
       <c r="P36" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>586.9317337484864</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>222.9314639777537</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L40" t="n">
         <v>318.3460770095692</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>254.3583680453843</v>
       </c>
       <c r="M42" t="n">
-        <v>469.4364773639903</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520613</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38017,7 +38017,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
         <v>150.5754385879392</v>
@@ -38102,19 +38102,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>509.9122281478584</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,13 +38184,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
